--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>-7.089268233570674</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.81071312269144</v>
+        <v>-11.7390982261472</v>
       </c>
       <c r="F2" t="n">
-        <v>2.998448852184379</v>
+        <v>2.449252932579654</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.73815239698871</v>
+        <v>-10.86780547203033</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.49492539013706</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.48466559607497</v>
+        <v>-12.36788225472677</v>
       </c>
       <c r="F3" t="n">
-        <v>3.103789520848907</v>
+        <v>2.554541232032815</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.42567840506524</v>
+        <v>-10.59769817210267</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.916448562881749</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.02228791996761</v>
+        <v>-12.92423966398592</v>
       </c>
       <c r="F4" t="n">
-        <v>2.97441138416697</v>
+        <v>2.41395608411836</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.0752498272036</v>
+        <v>-10.3333253008197</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.433368733701866</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.59799575282683</v>
+        <v>-13.50301109571011</v>
       </c>
       <c r="F5" t="n">
-        <v>3.124108774859266</v>
+        <v>2.599631123019719</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.795100730996342</v>
+        <v>-10.07310268953755</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.039140524656329</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.41571480371536</v>
+        <v>-14.29419204873846</v>
       </c>
       <c r="F6" t="n">
-        <v>3.118714746088475</v>
+        <v>2.587533835193965</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.28112310603586</v>
+        <v>-9.553141882178403</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.748886738586646</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.97740078023109</v>
+        <v>-14.8614684385676</v>
       </c>
       <c r="F7" t="n">
-        <v>3.148172427482358</v>
+        <v>2.646999074701085</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.006629884656231</v>
+        <v>-9.362203737534669</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.554461750718225</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.87534946293371</v>
+        <v>-15.69860337457041</v>
       </c>
       <c r="F8" t="n">
-        <v>3.481528642438387</v>
+        <v>2.953306591986108</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.397353387310826</v>
+        <v>-8.742571228641458</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.449414932615588</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.68381225571314</v>
+        <v>-16.53230812722868</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530808070334644</v>
+        <v>2.996799222026322</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.771790065230312</v>
+        <v>-8.098403744222852</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.415019614904762</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.33233947697804</v>
+        <v>-17.16677421524157</v>
       </c>
       <c r="F10" t="n">
-        <v>3.810564397456647</v>
+        <v>3.28365157728854</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.157734877347676</v>
+        <v>-7.477566743468202</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.429534267007348</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.28638867735746</v>
+        <v>-18.12786707454984</v>
       </c>
       <c r="F11" t="n">
-        <v>3.941382687451174</v>
+        <v>3.427562170124792</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.853783974574164</v>
+        <v>-7.162016060376921</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.468917003165358</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.22433434524156</v>
+        <v>-19.06437258912135</v>
       </c>
       <c r="F12" t="n">
-        <v>4.278011978117634</v>
+        <v>3.722138984063629</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.242360339562715</v>
+        <v>-6.574773908714139</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.505907425025197</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.85857786410613</v>
+        <v>-19.68882306546032</v>
       </c>
       <c r="F13" t="n">
-        <v>4.348448567406121</v>
+        <v>3.731277411447154</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.525726958915155</v>
+        <v>-5.853662960494709</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.521913850021727</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.78420367501617</v>
+        <v>-20.6265461641961</v>
       </c>
       <c r="F14" t="n">
-        <v>4.703695112713516</v>
+        <v>4.139809629320374</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.752377722357237</v>
+        <v>-5.056891594152944</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.499516358890284</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.62349884098786</v>
+        <v>-21.52281903213499</v>
       </c>
       <c r="F15" t="n">
-        <v>4.791623018598548</v>
+        <v>4.201264898859436</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.389262703041966</v>
+        <v>-4.700113249413067</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.435453294826604</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.42952646543872</v>
+        <v>-22.31375123140934</v>
       </c>
       <c r="F16" t="n">
-        <v>4.996622296494295</v>
+        <v>4.378953633027343</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.990981758293816</v>
+        <v>-4.296647752739595</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.330425015469384</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.39132630910045</v>
+        <v>-23.24280722566391</v>
       </c>
       <c r="F17" t="n">
-        <v>5.350402503883417</v>
+        <v>4.73626876218373</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.896075654994144</v>
+        <v>-4.231709930644634</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.196389720615787</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.28524256252782</v>
+        <v>-24.18123730875315</v>
       </c>
       <c r="F18" t="n">
-        <v>5.149933162770907</v>
+        <v>4.568896762655104</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.574109743510417</v>
+        <v>-3.944962313805149</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.045063645136349</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.00759727951721</v>
+        <v>-24.88500095570729</v>
       </c>
       <c r="F19" t="n">
-        <v>5.400519839161544</v>
+        <v>4.813460979738547</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.515783534350527</v>
+        <v>-3.919353769446733</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.893018583902977</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.41229345265781</v>
+        <v>-25.30281561629529</v>
       </c>
       <c r="F20" t="n">
-        <v>5.595726074531679</v>
+        <v>5.033542590507962</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.199408036180217</v>
+        <v>-3.615075559102177</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.750874724613972</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.01865036646951</v>
+        <v>-25.95612152809743</v>
       </c>
       <c r="F21" t="n">
-        <v>5.568389346198156</v>
+        <v>4.963682062544512</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.297299184527803</v>
+        <v>-3.66569040188829</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.629346034090479</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.52077945735823</v>
+        <v>-26.45279112870115</v>
       </c>
       <c r="F22" t="n">
-        <v>5.671373400351173</v>
+        <v>5.108797147242204</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.219059582745647</v>
+        <v>-3.643066902577788</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.531229485395598</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.93179921277138</v>
+        <v>-26.87617001799688</v>
       </c>
       <c r="F23" t="n">
-        <v>5.663806049308655</v>
+        <v>5.092641245535514</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.331587925670283</v>
+        <v>-3.756420060581452</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.457447154163828</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.3993515318551</v>
+        <v>-27.30877898079604</v>
       </c>
       <c r="F24" t="n">
-        <v>5.861368899190301</v>
+        <v>5.309685442045649</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.642818148823795</v>
+        <v>-4.033165158049858</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.400896939094196</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.45009729766963</v>
+        <v>-27.38010584667776</v>
       </c>
       <c r="F25" t="n">
-        <v>5.649299777760023</v>
+        <v>5.111153761753714</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.379204631105641</v>
+        <v>-3.746954325626884</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.351171393394544</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.7973051690322</v>
+        <v>-27.72764102561138</v>
       </c>
       <c r="F26" t="n">
-        <v>5.742412235570379</v>
+        <v>5.218877229535437</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.420785784930963</v>
+        <v>-3.78492200386789</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.292745675991368</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.72872768674724</v>
+        <v>-27.64206973423786</v>
       </c>
       <c r="F27" t="n">
-        <v>5.79543606207937</v>
+        <v>5.248753864620255</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.339888445671937</v>
+        <v>-3.699586373945519</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.207946018885994</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.01789737961245</v>
+        <v>-27.93411973372824</v>
       </c>
       <c r="F28" t="n">
-        <v>5.566189839320746</v>
+        <v>5.01159989094523</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.513492381353225</v>
+        <v>-3.840236983374183</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.082201234356146</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.11358902108262</v>
+        <v>-27.98540228395928</v>
       </c>
       <c r="F29" t="n">
-        <v>5.654301037445562</v>
+        <v>5.117097667243859</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.584282462818438</v>
+        <v>-3.901194745405259</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.902494353964618</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.77520536183537</v>
+        <v>-27.6504619003594</v>
       </c>
       <c r="F30" t="n">
-        <v>5.517172257481324</v>
+        <v>4.965436431125304</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.763070950425049</v>
+        <v>-4.06898569862482</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.666187907925339</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.61896181972221</v>
+        <v>-27.45610666467398</v>
       </c>
       <c r="F31" t="n">
-        <v>5.504603646753266</v>
+        <v>4.960827940525016</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.677119982269117</v>
+        <v>-3.977981101571983</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.373139013751554</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.34035761525028</v>
+        <v>-27.16078358947317</v>
       </c>
       <c r="F32" t="n">
-        <v>5.536758342532545</v>
+        <v>4.943467546956887</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.983558422582558</v>
+        <v>-4.236122036702295</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.03594113726058</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.16535280316493</v>
+        <v>-26.95718518798148</v>
       </c>
       <c r="F33" t="n">
-        <v>5.580800849292112</v>
+        <v>4.996124788986309</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.318132221702867</v>
+        <v>-4.586799368317928</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.667482190839853</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.67297747789329</v>
+        <v>-26.46564777009172</v>
       </c>
       <c r="F34" t="n">
-        <v>5.593945521345205</v>
+        <v>4.963655877938828</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.557773732917822</v>
+        <v>-4.795163368043998</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.291701376474379</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.38573235354582</v>
+        <v>-26.15405096245864</v>
       </c>
       <c r="F35" t="n">
-        <v>5.524477762467007</v>
+        <v>4.920948786069118</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.744993663554504</v>
+        <v>-4.969395734261689</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.9294831430928179</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.11747106831886</v>
+        <v>-25.87354837407466</v>
       </c>
       <c r="F36" t="n">
-        <v>5.562078856228444</v>
+        <v>4.956062342290628</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.845346164836334</v>
+        <v>-5.030091650235931</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6054681989634928</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.62779275743262</v>
+        <v>-25.39880838073083</v>
       </c>
       <c r="F37" t="n">
-        <v>5.396147010012408</v>
+        <v>4.779368623138692</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.21940634932729</v>
+        <v>-5.377417352324082</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.3352431647993042</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.15078779569717</v>
+        <v>-24.88124346479172</v>
       </c>
       <c r="F38" t="n">
-        <v>5.745737680492177</v>
+        <v>5.156767344854289</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.206418784908298</v>
+        <v>-5.352633623044694</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.1320979251994454</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.78001377921949</v>
+        <v>-24.50032291361169</v>
       </c>
       <c r="F39" t="n">
-        <v>5.731833654874264</v>
+        <v>5.11445302206983</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.427115733911274</v>
+        <v>-5.600182885176051</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.0005312848242072722</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.20232900863117</v>
+        <v>-23.93532458447701</v>
       </c>
       <c r="F40" t="n">
-        <v>5.81910694561721</v>
+        <v>5.180647705237597</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.40569672646221</v>
+        <v>-5.552121041444074</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.06250187625822168</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.75094568355698</v>
+        <v>-23.47293063271292</v>
       </c>
       <c r="F41" t="n">
-        <v>6.028819452535978</v>
+        <v>5.36870554325615</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.721587809427377</v>
+        <v>-5.826836831972012</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.06116120532013539</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.21477660527977</v>
+        <v>-22.92580329695719</v>
       </c>
       <c r="F42" t="n">
-        <v>6.003158538966195</v>
+        <v>5.344537152210323</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.769990053033238</v>
+        <v>-5.914476707194527</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.004843770421030742</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.56782046035588</v>
+        <v>-22.30017451336247</v>
       </c>
       <c r="F43" t="n">
-        <v>5.916696970999436</v>
+        <v>5.268130472826011</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.726759269049858</v>
+        <v>-5.846750224594278</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.09490244548400621</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.28653233380139</v>
+        <v>-22.02636209173061</v>
       </c>
       <c r="F44" t="n">
-        <v>6.063697347306336</v>
+        <v>5.384992367991257</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.731825990249606</v>
+        <v>-5.812081806669387</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2280808755470459</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.60994830754667</v>
+        <v>-21.32032038408201</v>
       </c>
       <c r="F45" t="n">
-        <v>5.960215785645333</v>
+        <v>5.272869886454715</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.712148259078492</v>
+        <v>-5.812801883325682</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.3841682072228014</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.07305915261317</v>
+        <v>-20.77403095570815</v>
       </c>
       <c r="F46" t="n">
-        <v>5.721045597332682</v>
+        <v>5.020712133723071</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.709110844819212</v>
+        <v>-5.822791310393919</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.5560809708768886</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.29897674709612</v>
+        <v>-19.97076580715689</v>
       </c>
       <c r="F47" t="n">
-        <v>5.97202504280857</v>
+        <v>5.27032997970342</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.826103663012876</v>
+        <v>-5.944418803793554</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.7366218601969322</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.62410781251366</v>
+        <v>-19.27688684884825</v>
       </c>
       <c r="F48" t="n">
-        <v>5.855529732122892</v>
+        <v>5.141187504472634</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.981784236103841</v>
+        <v>-6.116739693796353</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.922930228475898</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.13775494654922</v>
+        <v>-18.76250336249967</v>
       </c>
       <c r="F49" t="n">
-        <v>5.961341723689722</v>
+        <v>5.247758849604285</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.198802248008292</v>
+        <v>-6.378140612334255</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.111120490970833</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.54629707337141</v>
+        <v>-18.15346252660542</v>
       </c>
       <c r="F50" t="n">
-        <v>5.800856275455843</v>
+        <v>5.111127577148031</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.083301952338585</v>
+        <v>-6.258202026001203</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.301674300307911</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.10581963656437</v>
+        <v>-17.7032313241813</v>
       </c>
       <c r="F51" t="n">
-        <v>5.963174646087563</v>
+        <v>5.265433458440614</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.37764310482627</v>
+        <v>-6.537028799621443</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.491164718612856</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.81417549846208</v>
+        <v>-17.42025429056023</v>
       </c>
       <c r="F52" t="n">
-        <v>5.823191744103829</v>
+        <v>5.13720744440875</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.406158140415549</v>
+        <v>-6.561013898427485</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.679837039098207</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.9218565059814</v>
+        <v>-16.49852998589703</v>
       </c>
       <c r="F53" t="n">
-        <v>5.863201821588143</v>
+        <v>5.180307305363712</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.495735676458639</v>
+        <v>-6.655069002042445</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.86222268351939</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.27945648244643</v>
+        <v>-15.8358107083517</v>
       </c>
       <c r="F54" t="n">
-        <v>5.689466962878439</v>
+        <v>5.026132347099545</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.885925578050601</v>
+        <v>-7.0766018766375</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.036261148739484</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.88603278205256</v>
+        <v>-15.44818689811672</v>
       </c>
       <c r="F55" t="n">
-        <v>5.79407446258383</v>
+        <v>5.108718593425154</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.145166266619619</v>
+        <v>-7.328825090883353</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.196270881632671</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.82925146462799</v>
+        <v>-15.34346156768575</v>
       </c>
       <c r="F56" t="n">
-        <v>5.610651299771248</v>
+        <v>4.953522435539333</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.362367570763855</v>
+        <v>-7.545751456667912</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.339174356767111</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.46961899786862</v>
+        <v>-15.00282603234972</v>
       </c>
       <c r="F57" t="n">
-        <v>5.616857051318226</v>
+        <v>4.988950207029044</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.223196391556306</v>
+        <v>-7.416098381626298</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.460068608465307</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.22496313466529</v>
+        <v>-14.78981426511484</v>
       </c>
       <c r="F58" t="n">
-        <v>5.505965246248806</v>
+        <v>4.881776615966674</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.457915196902771</v>
+        <v>-7.653789139717835</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.554866256367502</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.59323333794632</v>
+        <v>-14.15706326877422</v>
       </c>
       <c r="F59" t="n">
-        <v>5.501540047888303</v>
+        <v>4.908903867454731</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.79529074883121</v>
+        <v>-8.014050037013611</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.620060002364402</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.34701949070482</v>
+        <v>-13.87009308278642</v>
       </c>
       <c r="F60" t="n">
-        <v>5.5966425357306</v>
+        <v>5.019952780158251</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.878439964179012</v>
+        <v>-8.066275233049257</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.652462642308469</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.15757386858504</v>
+        <v>-13.71847112357639</v>
       </c>
       <c r="F61" t="n">
-        <v>5.549065107203768</v>
+        <v>4.982953932327533</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.990078030510411</v>
+        <v>-8.2246790051313</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.651276554360442</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.7975748173461</v>
+        <v>-13.36988856041544</v>
       </c>
       <c r="F62" t="n">
-        <v>5.473784365863843</v>
+        <v>4.927966260392283</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.143205604547239</v>
+        <v>-8.375188118599784</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.615877290787533</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.37240228256105</v>
+        <v>-12.9049677942029</v>
       </c>
       <c r="F63" t="n">
-        <v>5.363128222245575</v>
+        <v>4.799871169388836</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.218473253584323</v>
+        <v>-8.464412162466147</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.547640164092714</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.26948368992224</v>
+        <v>-12.81977617961179</v>
       </c>
       <c r="F64" t="n">
-        <v>5.262448413392701</v>
+        <v>4.738651561300925</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.067191694248177</v>
+        <v>-8.309464758334318</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.447322749174585</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.04777863360045</v>
+        <v>-12.6458580286623</v>
       </c>
       <c r="F65" t="n">
-        <v>5.183161427383208</v>
+        <v>4.646403195478123</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.185965065628316</v>
+        <v>-8.424821038672766</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.31649701344352</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.04398186577635</v>
+        <v>-12.67087741939284</v>
       </c>
       <c r="F66" t="n">
-        <v>5.197248745240906</v>
+        <v>4.673059124063877</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.30523594451644</v>
+        <v>-8.557786466333337</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.156848141951195</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.98221238096909</v>
+        <v>-12.57532979325392</v>
       </c>
       <c r="F67" t="n">
-        <v>5.155484299175799</v>
+        <v>4.592724753827046</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.251059995357378</v>
+        <v>-8.528472800270713</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.970192638900094</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.65800768569942</v>
+        <v>-12.2662598000693</v>
       </c>
       <c r="F68" t="n">
-        <v>4.875047172306027</v>
+        <v>4.331166727655043</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.261573114539285</v>
+        <v>-8.538894273332726</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.760151457053808</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.67527643314766</v>
+        <v>-12.26570992334994</v>
       </c>
       <c r="F69" t="n">
-        <v>4.820295161821928</v>
+        <v>4.267957089535189</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.165842196160582</v>
+        <v>-8.430948236402694</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.528936127300268</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.71112315832831</v>
+        <v>-12.35180490683713</v>
       </c>
       <c r="F70" t="n">
-        <v>4.750094233984593</v>
+        <v>4.188329703651811</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.271195957127953</v>
+        <v>-8.515000820646575</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.282842218851974</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.78933657550478</v>
+        <v>-12.43859378237494</v>
       </c>
       <c r="F71" t="n">
-        <v>4.713723816690278</v>
+        <v>4.156358300112316</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.16627424215436</v>
+        <v>-8.435072311797839</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.024636651451953</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.73890502495845</v>
+        <v>-12.40206625744652</v>
       </c>
       <c r="F72" t="n">
-        <v>4.490081099547913</v>
+        <v>3.961623387644482</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.196373446387488</v>
+        <v>-8.474899097042369</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7626404476289618</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.87011608403823</v>
+        <v>-12.5643715357754</v>
       </c>
       <c r="F73" t="n">
-        <v>4.364683022929861</v>
+        <v>3.830883651467006</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.853813342533726</v>
+        <v>-8.12622488776152</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4993761546378582</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.18537873646699</v>
+        <v>-12.87194900643607</v>
       </c>
       <c r="F74" t="n">
-        <v>4.40183897839468</v>
+        <v>3.868327637594343</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.559747128405717</v>
+        <v>-7.853564588779733</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2433363877365461</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.42283383310738</v>
+        <v>-13.11413042440232</v>
       </c>
       <c r="F75" t="n">
-        <v>4.278902254710871</v>
+        <v>3.73921134696924</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.305075653528461</v>
+        <v>-7.564538911245789</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.003185792231461777</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.57340840809007</v>
+        <v>-13.28446128437317</v>
       </c>
       <c r="F76" t="n">
-        <v>4.153608916515553</v>
+        <v>3.610435456218022</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.281090554722419</v>
+        <v>-7.558071313641975</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2328789398778191</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.89799278014214</v>
+        <v>-13.62403634317902</v>
       </c>
       <c r="F77" t="n">
-        <v>4.318467193898568</v>
+        <v>3.768223890066505</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.10505145071257</v>
+        <v>-7.409617691719644</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.4429252116957298</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.10699830270746</v>
+        <v>-13.84664476839689</v>
       </c>
       <c r="F78" t="n">
-        <v>4.191995548447494</v>
+        <v>3.633530278430827</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.808746452798626</v>
+        <v>-7.120290891220339</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.6272109091312043</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.46674860019241</v>
+        <v>-14.18642930404821</v>
       </c>
       <c r="F79" t="n">
-        <v>3.946829085433332</v>
+        <v>3.381948587024219</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.804491454375065</v>
+        <v>-7.139130715009583</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.7829127344604411</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.94000916331512</v>
+        <v>-14.67657893783675</v>
       </c>
       <c r="F80" t="n">
-        <v>4.174006724342963</v>
+        <v>3.601323213440181</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.743023092533161</v>
+        <v>-7.051176624518868</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.9057585967007217</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.44965323603499</v>
+        <v>-15.15114873124364</v>
       </c>
       <c r="F81" t="n">
-        <v>4.075657345395917</v>
+        <v>3.527823025286731</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.622875029354641</v>
+        <v>-6.950444446454627</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.9938516589503018</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.12549100102773</v>
+        <v>-15.8197464527649</v>
       </c>
       <c r="F82" t="n">
-        <v>4.116138745782534</v>
+        <v>3.574588731037376</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.562179113380399</v>
+        <v>-6.86111566416553</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.045794254579247</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.8705870480532</v>
+        <v>-16.54753447543361</v>
       </c>
       <c r="F83" t="n">
-        <v>4.154054054812172</v>
+        <v>3.622009051930108</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.495264353556337</v>
+        <v>-6.832797013118877</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.062230504330014</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.662474985435</v>
+        <v>-17.35857645187286</v>
       </c>
       <c r="F84" t="n">
-        <v>4.178589030337567</v>
+        <v>3.638060215214064</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.158949278158078</v>
+        <v>-6.480483143648028</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.045110282165489</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.97404879181628</v>
+        <v>-18.68654182141197</v>
       </c>
       <c r="F85" t="n">
-        <v>4.083486542495269</v>
+        <v>3.578045098987592</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.846998978348271</v>
+        <v>-6.151067711847358</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.9974879516029344</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.94090226437491</v>
+        <v>-19.6840181903174</v>
       </c>
       <c r="F86" t="n">
-        <v>4.029127301096422</v>
+        <v>3.525152195507019</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.450040356187136</v>
+        <v>-5.769963868427554</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.9236135529541833</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.03742190427799</v>
+        <v>-20.73995169141113</v>
       </c>
       <c r="F87" t="n">
-        <v>3.963796709916209</v>
+        <v>3.437826535552706</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.389711024692462</v>
+        <v>-5.682808408410184</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.8286540282103313</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.36346270529938</v>
+        <v>-22.10588473919126</v>
       </c>
       <c r="F88" t="n">
-        <v>3.893857628135708</v>
+        <v>3.388730399896233</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.085223337502439</v>
+        <v>-5.34623148695509</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7184558915819936</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.91226903917273</v>
+        <v>-23.65033133621831</v>
       </c>
       <c r="F89" t="n">
-        <v>3.998281835601315</v>
+        <v>3.519365397650976</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.213514813048513</v>
+        <v>-5.482430713417567</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.5999062029442845</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.34289115529382</v>
+        <v>-25.0502650944784</v>
       </c>
       <c r="F90" t="n">
-        <v>3.925279154955851</v>
+        <v>3.493913960926661</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.141913008807113</v>
+        <v>-5.416838276180519</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.4796880974920242</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.77733622384469</v>
+        <v>-26.49293212921388</v>
       </c>
       <c r="F91" t="n">
-        <v>3.811847443135136</v>
+        <v>3.400330180214002</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.017915808593126</v>
+        <v>-5.257531135202396</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3649205391714162</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.52463496110146</v>
+        <v>-28.20226318822963</v>
       </c>
       <c r="F92" t="n">
-        <v>3.841724078219955</v>
+        <v>3.454610867795799</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.169158091020745</v>
+        <v>-5.430153148170555</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2612846898311836</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.51080276370551</v>
+        <v>-30.12501187586836</v>
       </c>
       <c r="F93" t="n">
-        <v>3.867908683903407</v>
+        <v>3.480088489125797</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.48207722124084</v>
+        <v>-5.738175757127844</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1745105120181656</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.61641164513463</v>
+        <v>-32.25316570279094</v>
       </c>
       <c r="F94" t="n">
-        <v>3.810957166541899</v>
+        <v>3.424420017442778</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.294516890730272</v>
+        <v>-5.553718302390765</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1077436720197432</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.6160776119685</v>
+        <v>-34.19107527712039</v>
       </c>
       <c r="F95" t="n">
-        <v>3.597107491925145</v>
+        <v>3.237304825228829</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.565383544222743</v>
+        <v>-5.813783806038812</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0633350293167475</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.07170920987117</v>
+        <v>-36.66346502266047</v>
       </c>
       <c r="F96" t="n">
-        <v>3.4807169196622</v>
+        <v>3.200777300300414</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.772687067418634</v>
+        <v>-6.047494504066464</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0415350530662941</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.41625261816178</v>
+        <v>-38.97195222892497</v>
       </c>
       <c r="F97" t="n">
-        <v>3.432144476119397</v>
+        <v>3.176006663323868</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.187202467690523</v>
+        <v>-6.416985474865657</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04049614255750743</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.67278956675032</v>
+        <v>-41.24451415619178</v>
       </c>
       <c r="F98" t="n">
-        <v>2.932044692171144</v>
+        <v>2.689261028274176</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.297112350046813</v>
+        <v>-6.494688292231301</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.05781538685008573</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.98486406399346</v>
+        <v>-43.5467301493951</v>
       </c>
       <c r="F99" t="n">
-        <v>2.893134368125534</v>
+        <v>2.644982860063458</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.612715402349462</v>
+        <v>-6.798953410273015</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.0877087941476327</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.24315538116279</v>
+        <v>-45.82958262669551</v>
       </c>
       <c r="F100" t="n">
-        <v>2.668915589658134</v>
+        <v>2.396700428972966</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.709218766595824</v>
+        <v>-6.852592575015566</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.127773510667612</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.38577620272547</v>
+        <v>-47.95357310131441</v>
       </c>
       <c r="F101" t="n">
-        <v>2.369206593005341</v>
+        <v>2.08400386790118</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.638913100335755</v>
+        <v>-6.773488881245858</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1684106530210957</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.98894496135155</v>
+        <v>-50.56840710177247</v>
       </c>
       <c r="F102" t="n">
-        <v>2.100028846579453</v>
+        <v>1.897648029252051</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.844763377916214</v>
+        <v>-6.974076053083943</v>
       </c>
     </row>
   </sheetData>
